--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col8a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Itga2</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H2">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I2">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J2">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65732958697911</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N2">
-        <v>1.65732958697911</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O2">
-        <v>0.3967744199406166</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P2">
-        <v>0.3967744199406166</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q2">
-        <v>6.422423259163219</v>
+        <v>14.17065671122956</v>
       </c>
       <c r="R2">
-        <v>6.422423259163219</v>
+        <v>127.535910401066</v>
       </c>
       <c r="S2">
-        <v>0.01217058943094463</v>
+        <v>0.01860189020852797</v>
       </c>
       <c r="T2">
-        <v>0.01217058943094463</v>
+        <v>0.02056406614281267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H3">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I3">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J3">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.01028305160397</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N3">
-        <v>1.01028305160397</v>
+        <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.2418676857791798</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P3">
-        <v>0.2418676857791798</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q3">
-        <v>3.915012089289103</v>
+        <v>4.973180383790778</v>
       </c>
       <c r="R3">
-        <v>3.915012089289103</v>
+        <v>44.758623454117</v>
       </c>
       <c r="S3">
-        <v>0.007419007255235074</v>
+        <v>0.006528318155726044</v>
       </c>
       <c r="T3">
-        <v>0.007419007255235074</v>
+        <v>0.007216942195160863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H4">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I4">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J4">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.155290287716967</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N4">
-        <v>0.155290287716967</v>
+        <v>0.06775</v>
       </c>
       <c r="O4">
-        <v>0.03717740533650878</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P4">
-        <v>0.03717740533650878</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q4">
-        <v>0.6017752676300759</v>
+        <v>0.1051684078055556</v>
       </c>
       <c r="R4">
-        <v>0.6017752676300759</v>
+        <v>0.9465156702500001</v>
       </c>
       <c r="S4">
-        <v>0.001140373254218801</v>
+        <v>0.0001380550820805886</v>
       </c>
       <c r="T4">
-        <v>0.001140373254218801</v>
+        <v>0.0001526174924930553</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.87516358219952</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H5">
-        <v>3.87516358219952</v>
+        <v>13.970711</v>
       </c>
       <c r="I5">
-        <v>0.03067382577930842</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J5">
-        <v>0.03067382577930842</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.35410421853342</v>
+        <v>0.160044</v>
       </c>
       <c r="N5">
-        <v>1.35410421853342</v>
+        <v>0.480132</v>
       </c>
       <c r="O5">
-        <v>0.3241804889436948</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P5">
-        <v>0.3241804889436948</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q5">
-        <v>5.24737535416345</v>
+        <v>0.745309490428</v>
       </c>
       <c r="R5">
-        <v>5.24737535416345</v>
+        <v>6.707785413852</v>
       </c>
       <c r="S5">
-        <v>0.009943855838909913</v>
+        <v>0.0009783714047161204</v>
       </c>
       <c r="T5">
-        <v>0.009943855838909913</v>
+        <v>0.001081572574253515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>117.335134249084</v>
+        <v>4.656903666666667</v>
       </c>
       <c r="H6">
-        <v>117.335134249084</v>
+        <v>13.970711</v>
       </c>
       <c r="I6">
-        <v>0.9287652996845437</v>
+        <v>0.03472688986918189</v>
       </c>
       <c r="J6">
-        <v>0.9287652996845437</v>
+        <v>0.03526504803992261</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.65732958697911</v>
+        <v>1.3872175</v>
       </c>
       <c r="N6">
-        <v>1.65732958697911</v>
+        <v>2.774435</v>
       </c>
       <c r="O6">
-        <v>0.3967744199406166</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P6">
-        <v>0.3967744199406166</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q6">
-        <v>194.4629895831728</v>
+        <v>6.460138262214167</v>
       </c>
       <c r="R6">
-        <v>194.4629895831728</v>
+        <v>38.760829573285</v>
       </c>
       <c r="S6">
-        <v>0.3685103130433078</v>
+        <v>0.008480255018131169</v>
       </c>
       <c r="T6">
-        <v>0.3685103130433078</v>
+        <v>0.006249849635202507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H7">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I7">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J7">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01028305160397</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N7">
-        <v>1.01028305160397</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O7">
-        <v>0.2418676857791798</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P7">
-        <v>0.2418676857791798</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q7">
-        <v>118.5416974895261</v>
+        <v>375.2079423601454</v>
       </c>
       <c r="R7">
-        <v>118.5416974895261</v>
+        <v>3376.871481241308</v>
       </c>
       <c r="S7">
-        <v>0.224638313666707</v>
+        <v>0.4925372967097663</v>
       </c>
       <c r="T7">
-        <v>0.224638313666707</v>
+        <v>0.5444914163990915</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H8">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I8">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J8">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.155290287716967</v>
+        <v>1.067915666666667</v>
       </c>
       <c r="N8">
-        <v>0.155290287716967</v>
+        <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.03717740533650878</v>
+        <v>0.1879902916822836</v>
       </c>
       <c r="P8">
-        <v>0.03717740533650878</v>
+        <v>0.2046485853922773</v>
       </c>
       <c r="Q8">
-        <v>18.22100675684921</v>
+        <v>131.6789205195607</v>
       </c>
       <c r="R8">
-        <v>18.22100675684921</v>
+        <v>1185.110284676046</v>
       </c>
       <c r="S8">
-        <v>0.03452908400885633</v>
+        <v>0.1728555614745262</v>
       </c>
       <c r="T8">
-        <v>0.03452908400885633</v>
+        <v>0.1910888172904912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>117.335134249084</v>
+        <v>123.304606</v>
       </c>
       <c r="H9">
-        <v>117.335134249084</v>
+        <v>369.913818</v>
       </c>
       <c r="I9">
-        <v>0.9287652996845437</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J9">
-        <v>0.9287652996845437</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.35410421853342</v>
+        <v>0.02258333333333333</v>
       </c>
       <c r="N9">
-        <v>1.35410421853342</v>
+        <v>0.06775</v>
       </c>
       <c r="O9">
-        <v>0.3241804889436948</v>
+        <v>0.003975451950942043</v>
       </c>
       <c r="P9">
-        <v>0.3241804889436948</v>
+        <v>0.004327726771285868</v>
       </c>
       <c r="Q9">
-        <v>158.8840002688698</v>
+        <v>2.784629018833333</v>
       </c>
       <c r="R9">
-        <v>158.8840002688698</v>
+        <v>25.0616611695</v>
       </c>
       <c r="S9">
-        <v>0.3010875889656726</v>
+        <v>0.00365539610022238</v>
       </c>
       <c r="T9">
-        <v>0.3010875889656726</v>
+        <v>0.004040976822274287</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1024,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.12423931059401</v>
+        <v>123.304606</v>
       </c>
       <c r="H10">
-        <v>5.12423931059401</v>
+        <v>369.913818</v>
       </c>
       <c r="I10">
-        <v>0.04056087453614789</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J10">
-        <v>0.04056087453614789</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.65732958697911</v>
+        <v>0.160044</v>
       </c>
       <c r="N10">
-        <v>1.65732958697911</v>
+        <v>0.480132</v>
       </c>
       <c r="O10">
-        <v>0.3967744199406166</v>
+        <v>0.02817330916767092</v>
       </c>
       <c r="P10">
-        <v>0.3967744199406166</v>
+        <v>0.03066981712400039</v>
       </c>
       <c r="Q10">
-        <v>8.492553420208891</v>
+        <v>19.734162362664</v>
       </c>
       <c r="R10">
-        <v>8.492553420208891</v>
+        <v>177.607461263976</v>
       </c>
       <c r="S10">
-        <v>0.01609351746636421</v>
+        <v>0.02590513122349774</v>
       </c>
       <c r="T10">
-        <v>0.01609351746636421</v>
+        <v>0.02863767208313207</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1086,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.12423931059401</v>
+        <v>123.304606</v>
       </c>
       <c r="H11">
-        <v>5.12423931059401</v>
+        <v>369.913818</v>
       </c>
       <c r="I11">
-        <v>0.04056087453614789</v>
+        <v>0.9194919584818978</v>
       </c>
       <c r="J11">
-        <v>0.04056087453614789</v>
+        <v>0.9337412077596615</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.01028305160397</v>
+        <v>1.3872175</v>
       </c>
       <c r="N11">
-        <v>1.01028305160397</v>
+        <v>2.774435</v>
       </c>
       <c r="O11">
-        <v>0.2418676857791798</v>
+        <v>0.2441985173471266</v>
       </c>
       <c r="P11">
-        <v>0.2418676857791798</v>
+        <v>0.1772250424308857</v>
       </c>
       <c r="Q11">
-        <v>5.17693212785594</v>
+        <v>171.050307273805</v>
       </c>
       <c r="R11">
-        <v>5.17693212785594</v>
+        <v>1026.30184364283</v>
       </c>
       <c r="S11">
-        <v>0.009810364857237753</v>
+        <v>0.2245385729738851</v>
       </c>
       <c r="T11">
-        <v>0.009810364857237753</v>
+        <v>0.1654823251646725</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.12423931059401</v>
+        <v>6.139289</v>
       </c>
       <c r="H12">
-        <v>5.12423931059401</v>
+        <v>12.278578</v>
       </c>
       <c r="I12">
-        <v>0.04056087453614789</v>
+        <v>0.04578115164892033</v>
       </c>
       <c r="J12">
-        <v>0.04056087453614789</v>
+        <v>0.03099374420041592</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.155290287716967</v>
+        <v>3.042935333333334</v>
       </c>
       <c r="N12">
-        <v>0.155290287716967</v>
+        <v>9.128806000000001</v>
       </c>
       <c r="O12">
-        <v>0.03717740533650878</v>
+        <v>0.5356624298519768</v>
       </c>
       <c r="P12">
-        <v>0.03717740533650878</v>
+        <v>0.5831288282815508</v>
       </c>
       <c r="Q12">
-        <v>0.7957445968727366</v>
+        <v>18.68145941964467</v>
       </c>
       <c r="R12">
-        <v>0.7957445968727366</v>
+        <v>112.088756517868</v>
       </c>
       <c r="S12">
-        <v>0.001507948073433647</v>
+        <v>0.0245232429336825</v>
       </c>
       <c r="T12">
-        <v>0.001507948073433647</v>
+        <v>0.01807334573964664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.139289</v>
+      </c>
+      <c r="H13">
+        <v>12.278578</v>
+      </c>
+      <c r="I13">
+        <v>0.04578115164892033</v>
+      </c>
+      <c r="J13">
+        <v>0.03099374420041592</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.067915666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.203747</v>
+      </c>
+      <c r="O13">
+        <v>0.1879902916822836</v>
+      </c>
+      <c r="P13">
+        <v>0.2046485853922773</v>
+      </c>
+      <c r="Q13">
+        <v>6.556242905294333</v>
+      </c>
+      <c r="R13">
+        <v>39.337457431766</v>
+      </c>
+      <c r="S13">
+        <v>0.008606412052031394</v>
+      </c>
+      <c r="T13">
+        <v>0.006342825906625216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>5.12423931059401</v>
-      </c>
-      <c r="H13">
-        <v>5.12423931059401</v>
-      </c>
-      <c r="I13">
-        <v>0.04056087453614789</v>
-      </c>
-      <c r="J13">
-        <v>0.04056087453614789</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="N13">
-        <v>1.35410421853342</v>
-      </c>
-      <c r="O13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="P13">
-        <v>0.3241804889436948</v>
-      </c>
-      <c r="Q13">
-        <v>6.938754067250133</v>
-      </c>
-      <c r="R13">
-        <v>6.938754067250133</v>
-      </c>
-      <c r="S13">
-        <v>0.01314904413911228</v>
-      </c>
-      <c r="T13">
-        <v>0.01314904413911228</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>6.139289</v>
+      </c>
+      <c r="H14">
+        <v>12.278578</v>
+      </c>
+      <c r="I14">
+        <v>0.04578115164892033</v>
+      </c>
+      <c r="J14">
+        <v>0.03099374420041592</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.02258333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.06775</v>
+      </c>
+      <c r="O14">
+        <v>0.003975451950942043</v>
+      </c>
+      <c r="P14">
+        <v>0.004327726771285868</v>
+      </c>
+      <c r="Q14">
+        <v>0.1386456099166667</v>
+      </c>
+      <c r="R14">
+        <v>0.8318736595</v>
+      </c>
+      <c r="S14">
+        <v>0.0001820007686390739</v>
+      </c>
+      <c r="T14">
+        <v>0.0001341324565185261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>6.139289</v>
+      </c>
+      <c r="H15">
+        <v>12.278578</v>
+      </c>
+      <c r="I15">
+        <v>0.04578115164892033</v>
+      </c>
+      <c r="J15">
+        <v>0.03099374420041592</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.160044</v>
+      </c>
+      <c r="N15">
+        <v>0.480132</v>
+      </c>
+      <c r="O15">
+        <v>0.02817330916767092</v>
+      </c>
+      <c r="P15">
+        <v>0.03066981712400039</v>
+      </c>
+      <c r="Q15">
+        <v>0.9825563687159999</v>
+      </c>
+      <c r="R15">
+        <v>5.895338212296</v>
+      </c>
+      <c r="S15">
+        <v>0.00128980653945706</v>
+      </c>
+      <c r="T15">
+        <v>0.0009505724666148038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>6.139289</v>
+      </c>
+      <c r="H16">
+        <v>12.278578</v>
+      </c>
+      <c r="I16">
+        <v>0.04578115164892033</v>
+      </c>
+      <c r="J16">
+        <v>0.03099374420041592</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.3872175</v>
+      </c>
+      <c r="N16">
+        <v>2.774435</v>
+      </c>
+      <c r="O16">
+        <v>0.2441985173471266</v>
+      </c>
+      <c r="P16">
+        <v>0.1772250424308857</v>
+      </c>
+      <c r="Q16">
+        <v>8.5165291383575</v>
+      </c>
+      <c r="R16">
+        <v>34.06611655343</v>
+      </c>
+      <c r="S16">
+        <v>0.01117968935511031</v>
+      </c>
+      <c r="T16">
+        <v>0.005492867631010729</v>
       </c>
     </row>
   </sheetData>
